--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656BA2E7-6338-4BF2-A14B-146607853735}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B0B3CE-467E-4078-80E5-2757813524B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>pruebaaa</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,6 +409,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B0B3CE-467E-4078-80E5-2757813524B0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240BC956-5CF3-40B7-8335-B64D0E59B690}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>aaaaa</t>
+  </si>
+  <si>
+    <t>pruebaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -351,70 +354,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240BC956-5CF3-40B7-8335-B64D0E59B690}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E743B7D3-9BDC-4C97-85C1-9448590C71BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>pruebaaaaaa</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -373,6 +379,9 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E743B7D3-9BDC-4C97-85C1-9448590C71BE}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4096D399-7D79-4DF3-8BAA-2AEC88E27942}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,6 +437,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4096D399-7D79-4DF3-8BAA-2AEC88E27942}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BF2094-B861-4060-A5B2-E6AE8750E1F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,45 +391,77 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21BF2094-B861-4060-A5B2-E6AE8750E1F4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B21536A-8775-43DF-8201-E2FE58916AD9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>aaaa</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,14 +467,45 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B21536A-8775-43DF-8201-E2FE58916AD9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39064343-AE86-4702-88D1-B58C80C76906}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +511,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39064343-AE86-4702-88D1-B58C80C76906}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DB2DB1-FB7C-4DC3-BF4A-EECE47170102}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,156 +377,204 @@
     <col min="2" max="2" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>

--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DB2DB1-FB7C-4DC3-BF4A-EECE47170102}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4D2F04E46CFB4ACB3E200F5D95D714683EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1EB2B0-1CDC-489B-9C00-30C1639C2A6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -366,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,7 +395,7 @@
     <col min="2" max="2" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +405,26 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -399,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -410,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -421,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -432,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -443,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -454,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -465,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -476,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -487,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -495,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -506,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -514,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -525,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -533,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>6</v>
       </c>
